--- a/BabyAeshaShaheen_Week2Homework.xlsx
+++ b/BabyAeshaShaheen_Week2Homework.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bshah\code\SavvyCoders\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEA01E4-E748-4933-9077-E95C7BC880A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF898FA2-7C84-4082-A22C-FAC1E446C0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet7" sheetId="8" r:id="rId1"/>
+    <sheet name="Payments" sheetId="18" r:id="rId1"/>
     <sheet name="Expenses" sheetId="1" r:id="rId2"/>
     <sheet name="Roster" sheetId="2" r:id="rId3"/>
     <sheet name="Credit Card Debt" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="38" r:id="rId5"/>
+    <pivotCache cacheId="20" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="170">
   <si>
     <t>Expenses</t>
   </si>
@@ -534,17 +534,33 @@
   </si>
   <si>
     <t>Wal-Mart</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Tax Code</t>
+  </si>
+  <si>
+    <t>Sum of Tax Inclusive Amount</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,8 +631,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,8 +678,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -704,118 +741,158 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="65"/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="65"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color indexed="65"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="65"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFABABAB"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="65"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="65"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color indexed="65"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="65"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="65"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -823,8 +900,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -867,36 +946,345 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6"/>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
     <cellStyle name="40% - Accent4" xfId="6" builtinId="43"/>
+    <cellStyle name="Accent1" xfId="8" builtinId="29"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="7" builtinId="4"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
     <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="90">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -910,6 +1298,2368 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[BabyAeshaShaheen_Week2Homework.xlsx]Payments!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Payments!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Payments!$A$5:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1/16/2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1/21/2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1/31/2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2/25/2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2/27/2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2/29/2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Payments!$B$5:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>738.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3770</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6AC4-4EA7-829F-B4FB23BBF7C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Payments!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Payments!$A$5:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1/16/2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1/21/2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1/31/2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2/25/2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2/27/2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2/29/2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Payments!$C$5:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-20000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6AC4-4EA7-829F-B4FB23BBF7C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Payments!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Payments!$A$5:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1/16/2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1/21/2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1/31/2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2/2/2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2/5/2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2/20/2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2/25/2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2/26/2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2/27/2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2/29/2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Payments!$D$5:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6AC4-4EA7-829F-B4FB23BBF7C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="385803648"/>
+        <c:axId val="385804128"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="385803648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385804128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="385804128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385803648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1066,22 +3816,22 @@
             <c:numRef>
               <c:f>'Credit Card Debt'!$G$4:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>666.73666666666668</c:v>
+                  <c:v>806.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.08333333333334</c:v>
+                  <c:v>187.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>325.08999999999997</c:v>
+                  <c:v>412.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500.05</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>260.08333333333331</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,7 +3927,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1221,443 +3971,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Credit Card Debt'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Balance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Credit Card Debt'!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Discover</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Capital one</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Citi Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Target</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Wal-Mart</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Credit Card Debt'!$B$4:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>975</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>780</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-387C-4C2A-96FA-648182CC3587}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Credit Card Debt'!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Monthly Payment</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Credit Card Debt'!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Discover</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Capital one</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Citi Card</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Target</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Wal-Mart</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Credit Card Debt'!$G$4:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>666.73666666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150.08333333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>325.08999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500.05</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>260.08333333333331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-387C-4C2A-96FA-648182CC3587}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="881733487"/>
-        <c:axId val="881742607"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="881733487"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="881742607"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="881742607"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="881733487"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1815,6 +4128,482 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2310,503 +5099,48 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BB5487-0192-53E9-9AED-2663FA86AF44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2844,77 +5178,272 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F444F52-0A27-D770-E484-4B55C7E91965}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Baby Shaheen" refreshedDate="45416.80019710648" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="207" xr:uid="{3DA57900-5525-41D0-9108-773189F5E8D6}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Baby Shaheen" refreshedDate="45418.593687152781" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="208" xr:uid="{37EC40B2-C55A-43E3-9710-9E1A136B2E09}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A3:I210" sheet="Expenses"/>
+    <worksheetSource ref="A2:I210" sheet="Expenses"/>
   </cacheSource>
-  <cacheFields count="9">
-    <cacheField name="2/14/2011" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-03-01T00:00:00" maxDate="2012-03-01T00:00:00"/>
+  <cacheFields count="12">
+    <cacheField name="Document Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-02-14T00:00:00" maxDate="2012-03-01T00:00:00"/>
     </cacheField>
-    <cacheField name="XY Solutions" numFmtId="0">
+    <cacheField name="Supplier" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="S77782" numFmtId="0">
+    <cacheField name="Reference" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Opening Balance" numFmtId="0">
+    <cacheField name="Description" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name=" 5,100.00 " numFmtId="43">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20000" maxValue="20000"/>
+    <cacheField name="Tax Inclusive Amount" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20000" maxValue="20000" count="69">
+        <n v="5100"/>
+        <n v="179"/>
+        <n v="478"/>
+        <n v="340"/>
+        <n v="50"/>
+        <n v="35"/>
+        <n v="1000"/>
+        <n v="90"/>
+        <n v="200"/>
+        <n v="-15000"/>
+        <n v="15000"/>
+        <n v="13000"/>
+        <n v="220"/>
+        <n v="100"/>
+        <n v="6400"/>
+        <n v="-100"/>
+        <n v="87"/>
+        <n v="80"/>
+        <n v="-20000"/>
+        <n v="20000"/>
+        <n v="1300"/>
+        <n v="3000"/>
+        <n v="41"/>
+        <n v="563"/>
+        <n v="982"/>
+        <n v="65"/>
+        <n v="110"/>
+        <n v="8700"/>
+        <n v="1782"/>
+        <n v="761"/>
+        <n v="29"/>
+        <n v="937"/>
+        <n v="2000"/>
+        <n v="-50"/>
+        <n v="78"/>
+        <n v="747"/>
+        <n v="1278"/>
+        <n v="3750"/>
+        <n v="6600"/>
+        <n v="234"/>
+        <n v="2600"/>
+        <n v="277.48"/>
+        <n v="5620"/>
+        <n v="12500"/>
+        <n v="4242"/>
+        <n v="62"/>
+        <n v="1887"/>
+        <n v="289"/>
+        <n v="3300"/>
+        <n v="218"/>
+        <n v="-200"/>
+        <n v="102"/>
+        <n v="170"/>
+        <n v="-170"/>
+        <n v="96"/>
+        <n v="120"/>
+        <n v="310"/>
+        <n v="962"/>
+        <n v="61"/>
+        <n v="8400"/>
+        <n v="105"/>
+        <n v="389.25"/>
+        <n v="514"/>
+        <n v="2200"/>
+        <n v="75"/>
+        <n v="10000"/>
+        <n v="70"/>
+        <n v="-70"/>
+        <n v="3700"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="A" numFmtId="0">
+    <cacheField name="Tax Code" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="B1" numFmtId="0">
+    <cacheField name="Bank Code" numFmtId="0">
+      <sharedItems count="3">
+        <s v="B1"/>
+        <s v="B2"/>
+        <s v="PC"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Account Code" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="BS-500" numFmtId="0">
-      <sharedItems/>
+    <cacheField name="Payment Date" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-03-02T00:00:00" maxDate="2012-03-01T00:00:00" count="110">
+        <d v="2011-03-02T00:00:00"/>
+        <d v="2011-03-31T00:00:00"/>
+        <d v="2011-04-01T00:00:00"/>
+        <d v="2011-03-05T00:00:00"/>
+        <d v="2011-03-15T00:00:00"/>
+        <d v="2011-04-02T00:00:00"/>
+        <d v="2011-03-18T00:00:00"/>
+        <d v="2011-03-20T00:00:00"/>
+        <d v="2011-03-26T00:00:00"/>
+        <d v="2011-05-01T00:00:00"/>
+        <d v="2011-04-05T00:00:00"/>
+        <d v="2011-04-12T00:00:00"/>
+        <d v="2011-04-15T00:00:00"/>
+        <d v="2011-05-03T00:00:00"/>
+        <d v="2011-04-20T00:00:00"/>
+        <d v="2011-04-25T00:00:00"/>
+        <d v="2011-04-26T00:00:00"/>
+        <d v="2011-05-26T00:00:00"/>
+        <d v="2011-05-29T00:00:00"/>
+        <d v="2011-04-30T00:00:00"/>
+        <d v="2011-05-31T00:00:00"/>
+        <d v="2011-05-05T00:00:00"/>
+        <d v="2011-05-07T00:00:00"/>
+        <d v="2011-06-06T00:00:00"/>
+        <d v="2011-05-15T00:00:00"/>
+        <d v="2011-06-02T00:00:00"/>
+        <d v="2011-05-20T00:00:00"/>
+        <d v="2011-07-01T00:00:00"/>
+        <d v="2011-06-05T00:00:00"/>
+        <d v="2011-06-15T00:00:00"/>
+        <d v="2011-07-03T00:00:00"/>
+        <d v="2011-06-20T00:00:00"/>
+        <d v="2011-06-22T00:00:00"/>
+        <d v="2011-06-25T00:00:00"/>
+        <d v="2011-06-26T00:00:00"/>
+        <d v="2011-06-30T00:00:00"/>
+        <d v="2011-07-31T00:00:00"/>
+        <d v="2011-08-01T00:00:00"/>
+        <d v="2011-07-05T00:00:00"/>
+        <d v="2011-07-15T00:00:00"/>
+        <d v="2011-08-02T00:00:00"/>
+        <d v="2011-07-16T00:00:00"/>
+        <d v="2011-08-16T00:00:00"/>
+        <d v="2011-07-20T00:00:00"/>
+        <d v="2011-08-24T00:00:00"/>
+        <d v="2011-07-26T00:00:00"/>
+        <d v="2011-08-31T00:00:00"/>
+        <d v="2011-08-05T00:00:00"/>
+        <d v="2011-08-09T00:00:00"/>
+        <d v="2011-09-12T00:00:00"/>
+        <d v="2011-08-15T00:00:00"/>
+        <d v="2011-09-02T00:00:00"/>
+        <d v="2011-08-20T00:00:00"/>
+        <d v="2011-08-21T00:00:00"/>
+        <d v="2011-08-25T00:00:00"/>
+        <d v="2011-08-26T00:00:00"/>
+        <d v="2011-09-26T00:00:00"/>
+        <d v="2011-10-01T00:00:00"/>
+        <d v="2011-09-05T00:00:00"/>
+        <d v="2011-10-13T00:00:00"/>
+        <d v="2011-09-15T00:00:00"/>
+        <d v="2011-10-03T00:00:00"/>
+        <d v="2011-09-18T00:00:00"/>
+        <d v="2011-09-20T00:00:00"/>
+        <d v="2011-09-21T00:00:00"/>
+        <d v="2011-10-24T00:00:00"/>
+        <d v="2011-09-30T00:00:00"/>
+        <d v="2011-10-31T00:00:00"/>
+        <d v="2011-11-03T00:00:00"/>
+        <d v="2011-10-04T00:00:00"/>
+        <d v="2011-10-05T00:00:00"/>
+        <d v="2011-10-15T00:00:00"/>
+        <d v="2011-11-02T00:00:00"/>
+        <d v="2011-10-20T00:00:00"/>
+        <d v="2011-11-21T00:00:00"/>
+        <d v="2011-10-25T00:00:00"/>
+        <d v="2011-10-26T00:00:00"/>
+        <d v="2011-10-28T00:00:00"/>
+        <d v="2011-12-01T00:00:00"/>
+        <d v="2011-11-05T00:00:00"/>
+        <d v="2011-12-05T00:00:00"/>
+        <d v="2011-11-15T00:00:00"/>
+        <d v="2011-12-03T00:00:00"/>
+        <d v="2011-11-19T00:00:00"/>
+        <d v="2011-11-20T00:00:00"/>
+        <d v="2011-11-26T00:00:00"/>
+        <d v="2011-11-30T00:00:00"/>
+        <d v="2011-12-31T00:00:00"/>
+        <d v="2011-12-06T00:00:00"/>
+        <d v="2011-12-15T00:00:00"/>
+        <d v="2012-01-02T00:00:00"/>
+        <d v="2012-01-16T00:00:00"/>
+        <d v="2011-12-20T00:00:00"/>
+        <d v="2012-01-21T00:00:00"/>
+        <d v="2011-12-25T00:00:00"/>
+        <d v="2011-12-26T00:00:00"/>
+        <d v="2012-01-31T00:00:00"/>
+        <d v="2012-01-05T00:00:00"/>
+        <d v="2012-01-15T00:00:00"/>
+        <d v="2012-02-02T00:00:00"/>
+        <d v="2012-01-20T00:00:00"/>
+        <d v="2012-01-26T00:00:00"/>
+        <d v="2012-02-27T00:00:00"/>
+        <m/>
+        <d v="2012-02-05T00:00:00"/>
+        <d v="2012-02-15T00:00:00"/>
+        <d v="2012-02-20T00:00:00"/>
+        <d v="2012-02-25T00:00:00"/>
+        <d v="2012-02-26T00:00:00"/>
+        <d v="2012-02-29T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="11"/>
     </cacheField>
-    <cacheField name="3/2/2011" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-03-05T00:00:00" maxDate="2012-03-01T00:00:00"/>
+    <cacheField name="Months (Payment Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="8">
+        <rangePr groupBy="months" startDate="2011-03-02T00:00:00" endDate="2012-03-01T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;3/2/2011"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;3/1/2012"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Quarters (Payment Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="8">
+        <rangePr groupBy="quarters" startDate="2011-03-02T00:00:00" endDate="2012-03-01T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;3/2/2011"/>
+          <s v="Qtr1"/>
+          <s v="Qtr2"/>
+          <s v="Qtr3"/>
+          <s v="Qtr4"/>
+          <s v="&gt;3/1/2012"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Years (Payment Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="8">
+        <rangePr groupBy="years" startDate="2011-03-02T00:00:00" endDate="2012-03-01T00:00:00"/>
+        <groupItems count="4">
+          <s v="&lt;3/2/2011"/>
+          <s v="2011"/>
+          <s v="2012"/>
+          <s v="&gt;3/1/2012"/>
+        </groupItems>
+      </fieldGroup>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2926,2302 +5455,2996 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="207">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="208">
+  <r>
+    <d v="2011-02-14T00:00:00"/>
+    <s v="XY Solutions"/>
+    <s v="S77782"/>
+    <s v="Opening Balance"/>
+    <x v="0"/>
+    <s v="A"/>
+    <x v="0"/>
+    <s v="BS-500"/>
+    <x v="0"/>
+  </r>
   <r>
     <d v="2011-03-01T00:00:00"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP22"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-03-31T00:00:00"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2011-03-02T00:00:00"/>
     <s v="Newscorp"/>
     <s v="I381119"/>
     <s v="Subscriptions"/>
-    <n v="478"/>
+    <x v="2"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-375"/>
-    <d v="2011-04-01T00:00:00"/>
+    <x v="2"/>
   </r>
   <r>
     <d v="2011-03-05T00:00:00"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-03-05T00:00:00"/>
+    <x v="3"/>
   </r>
   <r>
     <d v="2011-03-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="50"/>
+    <x v="4"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
-    <d v="2011-03-15T00:00:00"/>
+    <x v="4"/>
   </r>
   <r>
     <d v="2011-03-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
-    <d v="2011-03-15T00:00:00"/>
+    <x v="4"/>
   </r>
   <r>
     <d v="2011-03-15T00:00:00"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-04-02T00:00:00"/>
+    <x v="5"/>
   </r>
   <r>
     <d v="2011-03-15T00:00:00"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="90"/>
+    <x v="7"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-03-15T00:00:00"/>
+    <x v="4"/>
   </r>
   <r>
     <d v="2011-03-18T00:00:00"/>
     <s v="QQ International"/>
     <s v="TR6998"/>
     <s v="Parking"/>
-    <n v="200"/>
+    <x v="8"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-390"/>
-    <d v="2011-03-18T00:00:00"/>
+    <x v="6"/>
   </r>
   <r>
     <d v="2011-03-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-15000"/>
+    <x v="9"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
-    <d v="2011-03-20T00:00:00"/>
+    <x v="7"/>
   </r>
   <r>
     <d v="2011-03-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="15000"/>
+    <x v="10"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-03-20T00:00:00"/>
+    <x v="7"/>
   </r>
   <r>
     <d v="2011-03-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="13000"/>
+    <x v="11"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
-    <d v="2011-03-26T00:00:00"/>
+    <x v="8"/>
   </r>
   <r>
     <d v="2011-03-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
-    <d v="2011-03-26T00:00:00"/>
+    <x v="8"/>
   </r>
   <r>
     <d v="2011-03-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
-    <d v="2011-03-26T00:00:00"/>
+    <x v="8"/>
   </r>
   <r>
     <d v="2011-03-26T00:00:00"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-03-26T00:00:00"/>
+    <x v="8"/>
   </r>
   <r>
     <d v="2011-03-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-03-31T00:00:00"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2011-03-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-100"/>
+    <x v="15"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-03-31T00:00:00"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2011-04-01T00:00:00"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP23"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-05-01T00:00:00"/>
+    <x v="9"/>
   </r>
   <r>
     <d v="2011-04-05T00:00:00"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-04-05T00:00:00"/>
+    <x v="10"/>
   </r>
   <r>
     <d v="2011-04-12T00:00:00"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="87"/>
+    <x v="16"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-04-12T00:00:00"/>
+    <x v="11"/>
   </r>
   <r>
     <d v="2011-04-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
-    <d v="2011-04-15T00:00:00"/>
+    <x v="12"/>
   </r>
   <r>
     <d v="2011-04-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
-    <d v="2011-04-15T00:00:00"/>
+    <x v="12"/>
   </r>
   <r>
     <d v="2011-04-15T00:00:00"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-05-03T00:00:00"/>
+    <x v="13"/>
   </r>
   <r>
     <d v="2011-04-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
-    <d v="2011-04-20T00:00:00"/>
+    <x v="14"/>
   </r>
   <r>
     <d v="2011-04-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-04-20T00:00:00"/>
+    <x v="14"/>
   </r>
   <r>
     <d v="2011-04-25T00:00:00"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <n v="1300"/>
+    <x v="20"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-600"/>
-    <d v="2011-04-25T00:00:00"/>
+    <x v="15"/>
   </r>
   <r>
     <d v="2011-04-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
-    <d v="2011-04-26T00:00:00"/>
+    <x v="16"/>
   </r>
   <r>
     <d v="2011-04-26T00:00:00"/>
     <s v="Furniture City"/>
     <s v="Invoice"/>
     <s v="Furniture"/>
-    <n v="3000"/>
+    <x v="21"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-100"/>
-    <d v="2011-05-26T00:00:00"/>
+    <x v="17"/>
   </r>
   <r>
     <d v="2011-04-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
-    <d v="2011-04-26T00:00:00"/>
+    <x v="16"/>
   </r>
   <r>
     <d v="2011-04-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
-    <d v="2011-04-26T00:00:00"/>
+    <x v="16"/>
   </r>
   <r>
     <d v="2011-04-26T00:00:00"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-04-26T00:00:00"/>
+    <x v="16"/>
   </r>
   <r>
     <d v="2011-04-29T00:00:00"/>
     <s v="GF Supplies"/>
     <s v="IN1179"/>
     <s v="Consumables"/>
-    <n v="41"/>
+    <x v="22"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-325"/>
-    <d v="2011-05-29T00:00:00"/>
+    <x v="18"/>
   </r>
   <r>
     <d v="2011-04-30T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-04-30T00:00:00"/>
+    <x v="19"/>
   </r>
   <r>
     <d v="2011-04-30T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-100"/>
+    <x v="15"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-04-30T00:00:00"/>
+    <x v="19"/>
   </r>
   <r>
     <d v="2011-05-01T00:00:00"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP24"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-05-31T00:00:00"/>
+    <x v="20"/>
   </r>
   <r>
     <d v="2011-05-01T00:00:00"/>
     <s v="Training Inc"/>
     <s v="Invoice"/>
     <s v="Course"/>
-    <n v="220"/>
+    <x v="12"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-385"/>
-    <d v="2011-05-31T00:00:00"/>
+    <x v="20"/>
   </r>
   <r>
     <d v="2011-05-05T00:00:00"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-05-05T00:00:00"/>
+    <x v="21"/>
   </r>
   <r>
     <d v="2011-05-07T00:00:00"/>
     <s v="City Lodge"/>
     <s v="S50037"/>
     <s v="Accommodation"/>
-    <n v="563"/>
+    <x v="23"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-390"/>
-    <d v="2011-05-07T00:00:00"/>
+    <x v="22"/>
   </r>
   <r>
     <d v="2011-05-07T00:00:00"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <n v="982"/>
+    <x v="24"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-370"/>
-    <d v="2011-06-06T00:00:00"/>
+    <x v="23"/>
   </r>
   <r>
     <d v="2011-05-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
-    <d v="2011-05-15T00:00:00"/>
+    <x v="24"/>
   </r>
   <r>
     <d v="2011-05-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
-    <d v="2011-05-15T00:00:00"/>
+    <x v="24"/>
   </r>
   <r>
     <d v="2011-05-15T00:00:00"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-06-02T00:00:00"/>
+    <x v="25"/>
   </r>
   <r>
     <d v="2011-05-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
-    <d v="2011-05-20T00:00:00"/>
+    <x v="26"/>
   </r>
   <r>
     <d v="2011-05-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-05-20T00:00:00"/>
+    <x v="26"/>
   </r>
   <r>
     <d v="2011-05-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
-    <d v="2011-05-26T00:00:00"/>
+    <x v="17"/>
   </r>
   <r>
     <d v="2011-05-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
-    <d v="2011-05-26T00:00:00"/>
+    <x v="17"/>
   </r>
   <r>
     <d v="2011-05-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
-    <d v="2011-05-26T00:00:00"/>
+    <x v="17"/>
   </r>
   <r>
     <d v="2011-05-26T00:00:00"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-05-26T00:00:00"/>
+    <x v="17"/>
   </r>
   <r>
     <d v="2011-05-29T00:00:00"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="65"/>
+    <x v="25"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-05-29T00:00:00"/>
+    <x v="18"/>
   </r>
   <r>
     <d v="2011-05-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-05-31T00:00:00"/>
+    <x v="20"/>
   </r>
   <r>
     <d v="2011-05-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-100"/>
+    <x v="15"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-05-31T00:00:00"/>
+    <x v="20"/>
   </r>
   <r>
     <d v="2011-06-01T00:00:00"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP25"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-07-01T00:00:00"/>
+    <x v="27"/>
   </r>
   <r>
     <d v="2011-06-05T00:00:00"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-06-05T00:00:00"/>
+    <x v="28"/>
   </r>
   <r>
     <d v="2011-06-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
-    <d v="2011-06-15T00:00:00"/>
+    <x v="29"/>
   </r>
   <r>
     <d v="2011-06-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
-    <d v="2011-06-15T00:00:00"/>
+    <x v="29"/>
   </r>
   <r>
     <d v="2011-06-15T00:00:00"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-07-03T00:00:00"/>
+    <x v="30"/>
   </r>
   <r>
     <d v="2011-06-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
-    <d v="2011-06-20T00:00:00"/>
+    <x v="31"/>
   </r>
   <r>
     <d v="2011-06-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-06-20T00:00:00"/>
+    <x v="31"/>
   </r>
   <r>
     <d v="2011-06-22T00:00:00"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="110"/>
+    <x v="26"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-06-22T00:00:00"/>
+    <x v="32"/>
   </r>
   <r>
     <d v="2011-06-25T00:00:00"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <n v="8700"/>
+    <x v="27"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-600"/>
-    <d v="2011-06-25T00:00:00"/>
+    <x v="33"/>
   </r>
   <r>
     <d v="2011-06-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
-    <d v="2011-06-26T00:00:00"/>
+    <x v="34"/>
   </r>
   <r>
     <d v="2011-06-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
-    <d v="2011-06-26T00:00:00"/>
+    <x v="34"/>
   </r>
   <r>
     <d v="2011-06-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
-    <d v="2011-06-26T00:00:00"/>
+    <x v="34"/>
   </r>
   <r>
     <d v="2011-06-26T00:00:00"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-06-26T00:00:00"/>
+    <x v="34"/>
   </r>
   <r>
     <d v="2011-06-26T00:00:00"/>
     <s v="SA Airlines"/>
     <s v="SA11235"/>
     <s v="Travel"/>
-    <n v="1782"/>
+    <x v="28"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-390"/>
-    <d v="2011-06-26T00:00:00"/>
+    <x v="34"/>
   </r>
   <r>
     <d v="2011-06-30T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-06-30T00:00:00"/>
+    <x v="35"/>
   </r>
   <r>
     <d v="2011-06-30T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-100"/>
+    <x v="15"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-06-30T00:00:00"/>
+    <x v="35"/>
   </r>
   <r>
     <d v="2011-07-01T00:00:00"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP26"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-07-31T00:00:00"/>
+    <x v="36"/>
   </r>
   <r>
     <d v="2011-07-02T00:00:00"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <n v="761"/>
+    <x v="29"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-370"/>
-    <d v="2011-08-01T00:00:00"/>
+    <x v="37"/>
   </r>
   <r>
     <d v="2011-07-05T00:00:00"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-07-05T00:00:00"/>
+    <x v="38"/>
   </r>
   <r>
     <d v="2011-07-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
-    <d v="2011-07-15T00:00:00"/>
+    <x v="39"/>
   </r>
   <r>
     <d v="2011-07-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
-    <d v="2011-07-15T00:00:00"/>
+    <x v="39"/>
   </r>
   <r>
     <d v="2011-07-15T00:00:00"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-08-02T00:00:00"/>
+    <x v="40"/>
   </r>
   <r>
     <d v="2011-07-16T00:00:00"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="29"/>
+    <x v="30"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-07-16T00:00:00"/>
+    <x v="41"/>
   </r>
   <r>
     <d v="2011-07-17T00:00:00"/>
     <s v="GF Supplies"/>
     <s v="IN1181"/>
     <s v="Consumables"/>
-    <n v="937"/>
+    <x v="31"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-325"/>
-    <d v="2011-08-16T00:00:00"/>
+    <x v="42"/>
   </r>
   <r>
     <d v="2011-07-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
-    <d v="2011-07-20T00:00:00"/>
+    <x v="43"/>
   </r>
   <r>
     <d v="2011-07-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-07-20T00:00:00"/>
+    <x v="43"/>
   </r>
   <r>
     <d v="2011-07-25T00:00:00"/>
     <s v="ACC Institute"/>
     <s v="M00321037"/>
     <s v="Annual Membership"/>
-    <n v="2000"/>
+    <x v="32"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-375"/>
-    <d v="2011-08-24T00:00:00"/>
+    <x v="44"/>
   </r>
   <r>
     <d v="2011-07-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
-    <d v="2011-07-26T00:00:00"/>
+    <x v="45"/>
   </r>
   <r>
     <d v="2011-07-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
-    <d v="2011-07-26T00:00:00"/>
+    <x v="45"/>
   </r>
   <r>
     <d v="2011-07-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
-    <d v="2011-07-26T00:00:00"/>
+    <x v="45"/>
   </r>
   <r>
     <d v="2011-07-26T00:00:00"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-07-26T00:00:00"/>
+    <x v="45"/>
   </r>
   <r>
     <d v="2011-07-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="50"/>
+    <x v="4"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-07-31T00:00:00"/>
+    <x v="36"/>
   </r>
   <r>
     <d v="2011-07-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-50"/>
+    <x v="33"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-07-31T00:00:00"/>
+    <x v="36"/>
   </r>
   <r>
     <d v="2011-08-01T00:00:00"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP27"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-08-31T00:00:00"/>
+    <x v="46"/>
   </r>
   <r>
     <d v="2011-08-05T00:00:00"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-08-05T00:00:00"/>
+    <x v="47"/>
   </r>
   <r>
     <d v="2011-08-09T00:00:00"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="78"/>
+    <x v="34"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-08-09T00:00:00"/>
+    <x v="48"/>
   </r>
   <r>
     <d v="2011-08-13T00:00:00"/>
     <s v="XY Traders"/>
     <s v="Invoice 9987"/>
     <s v="Commission"/>
-    <n v="747"/>
+    <x v="35"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-320"/>
-    <d v="2011-09-12T00:00:00"/>
+    <x v="49"/>
   </r>
   <r>
     <d v="2011-08-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
-    <d v="2011-08-15T00:00:00"/>
+    <x v="50"/>
   </r>
   <r>
     <d v="2011-08-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
-    <d v="2011-08-15T00:00:00"/>
+    <x v="50"/>
   </r>
   <r>
     <d v="2011-08-15T00:00:00"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-09-02T00:00:00"/>
+    <x v="51"/>
   </r>
   <r>
     <d v="2011-08-15T00:00:00"/>
     <s v="SA Airlines"/>
     <s v="SA11988"/>
     <s v="Travel"/>
-    <n v="1278"/>
+    <x v="36"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-390"/>
-    <d v="2011-08-15T00:00:00"/>
+    <x v="50"/>
   </r>
   <r>
     <d v="2011-08-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
-    <d v="2011-08-20T00:00:00"/>
+    <x v="52"/>
   </r>
   <r>
     <d v="2011-08-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-08-20T00:00:00"/>
+    <x v="52"/>
   </r>
   <r>
     <d v="2011-08-21T00:00:00"/>
     <s v="JSE Brokers"/>
     <s v="Remittance"/>
     <s v="Share investment"/>
-    <n v="3750"/>
+    <x v="37"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-200"/>
-    <d v="2011-08-21T00:00:00"/>
+    <x v="53"/>
   </r>
   <r>
     <d v="2011-08-25T00:00:00"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <n v="6600"/>
+    <x v="38"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-600"/>
-    <d v="2011-08-25T00:00:00"/>
+    <x v="54"/>
   </r>
   <r>
     <d v="2011-08-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
-    <d v="2011-08-26T00:00:00"/>
+    <x v="55"/>
   </r>
   <r>
     <d v="2011-08-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
-    <d v="2011-08-26T00:00:00"/>
+    <x v="55"/>
   </r>
   <r>
     <d v="2011-08-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
-    <d v="2011-08-26T00:00:00"/>
+    <x v="55"/>
   </r>
   <r>
     <d v="2011-08-26T00:00:00"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-08-26T00:00:00"/>
+    <x v="55"/>
   </r>
   <r>
     <d v="2011-08-27T00:00:00"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <n v="234"/>
+    <x v="39"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-370"/>
-    <d v="2011-09-26T00:00:00"/>
+    <x v="56"/>
   </r>
   <r>
     <d v="2011-08-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="50"/>
+    <x v="4"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-08-31T00:00:00"/>
+    <x v="46"/>
   </r>
   <r>
     <d v="2011-08-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-50"/>
+    <x v="33"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-08-31T00:00:00"/>
+    <x v="46"/>
   </r>
   <r>
     <d v="2011-08-31T00:00:00"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Provisional Tax"/>
-    <n v="2600"/>
+    <x v="40"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-600"/>
-    <d v="2011-08-31T00:00:00"/>
+    <x v="46"/>
   </r>
   <r>
     <d v="2011-09-01T00:00:00"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP28"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-10-01T00:00:00"/>
+    <x v="57"/>
   </r>
   <r>
     <d v="2011-09-05T00:00:00"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-09-05T00:00:00"/>
+    <x v="58"/>
   </r>
   <r>
     <d v="2011-09-13T00:00:00"/>
     <s v="Training Inc"/>
     <s v="Invoice"/>
     <s v="Course"/>
-    <n v="277.48"/>
+    <x v="41"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-385"/>
-    <d v="2011-10-13T00:00:00"/>
+    <x v="59"/>
   </r>
   <r>
     <d v="2011-09-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
-    <d v="2011-09-15T00:00:00"/>
+    <x v="60"/>
   </r>
   <r>
     <d v="2011-09-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
-    <d v="2011-09-15T00:00:00"/>
+    <x v="60"/>
   </r>
   <r>
     <d v="2011-09-15T00:00:00"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-10-03T00:00:00"/>
+    <x v="61"/>
   </r>
   <r>
     <d v="2011-09-18T00:00:00"/>
     <s v="Municipality"/>
     <s v="Statement"/>
     <s v="Rates"/>
-    <n v="5620"/>
+    <x v="42"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-395"/>
-    <d v="2011-09-18T00:00:00"/>
+    <x v="62"/>
   </r>
   <r>
     <d v="2011-09-18T00:00:00"/>
     <s v="QA Attorneys"/>
     <s v="Invoice"/>
     <s v="Legal advice"/>
-    <n v="12500"/>
+    <x v="43"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-360"/>
-    <d v="2011-09-18T00:00:00"/>
+    <x v="62"/>
   </r>
   <r>
     <d v="2011-09-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
-    <d v="2011-09-20T00:00:00"/>
+    <x v="63"/>
   </r>
   <r>
     <d v="2011-09-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-09-20T00:00:00"/>
+    <x v="63"/>
   </r>
   <r>
     <d v="2011-09-21T00:00:00"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="90"/>
+    <x v="7"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-09-21T00:00:00"/>
+    <x v="64"/>
   </r>
   <r>
     <d v="2011-09-24T00:00:00"/>
     <s v="XY Traders"/>
     <s v="Invoice11203"/>
     <s v="Commission"/>
-    <n v="4242"/>
+    <x v="44"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-320"/>
-    <d v="2011-10-24T00:00:00"/>
+    <x v="65"/>
   </r>
   <r>
     <d v="2011-09-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
-    <d v="2011-09-26T00:00:00"/>
+    <x v="56"/>
   </r>
   <r>
     <d v="2011-09-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
-    <d v="2011-09-26T00:00:00"/>
+    <x v="56"/>
   </r>
   <r>
     <d v="2011-09-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
-    <d v="2011-09-26T00:00:00"/>
+    <x v="56"/>
   </r>
   <r>
     <d v="2011-09-26T00:00:00"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-09-26T00:00:00"/>
+    <x v="56"/>
   </r>
   <r>
     <d v="2011-09-30T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-09-30T00:00:00"/>
+    <x v="66"/>
   </r>
   <r>
     <d v="2011-09-30T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-100"/>
+    <x v="15"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-09-30T00:00:00"/>
+    <x v="66"/>
   </r>
   <r>
     <d v="2011-10-01T00:00:00"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP29"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-10-31T00:00:00"/>
+    <x v="67"/>
   </r>
   <r>
     <d v="2011-10-04T00:00:00"/>
     <s v="GF Supplies"/>
     <s v="IN1185"/>
     <s v="Consumables"/>
-    <n v="62"/>
+    <x v="45"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-325"/>
-    <d v="2011-11-03T00:00:00"/>
+    <x v="68"/>
   </r>
   <r>
     <d v="2011-10-04T00:00:00"/>
     <s v="SA Airlines"/>
     <s v="SA12741"/>
     <s v="Travel"/>
-    <n v="1887"/>
+    <x v="46"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-390"/>
-    <d v="2011-10-04T00:00:00"/>
+    <x v="69"/>
   </r>
   <r>
     <d v="2011-10-05T00:00:00"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-10-05T00:00:00"/>
+    <x v="70"/>
   </r>
   <r>
     <d v="2011-10-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
-    <d v="2011-10-15T00:00:00"/>
+    <x v="71"/>
   </r>
   <r>
     <d v="2011-10-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
-    <d v="2011-10-15T00:00:00"/>
+    <x v="71"/>
   </r>
   <r>
     <d v="2011-10-15T00:00:00"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-11-02T00:00:00"/>
+    <x v="72"/>
   </r>
   <r>
     <d v="2011-10-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
-    <d v="2011-10-20T00:00:00"/>
+    <x v="73"/>
   </r>
   <r>
     <d v="2011-10-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-10-20T00:00:00"/>
+    <x v="73"/>
   </r>
   <r>
     <d v="2011-10-22T00:00:00"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <n v="289"/>
+    <x v="47"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-370"/>
-    <d v="2011-11-21T00:00:00"/>
+    <x v="74"/>
   </r>
   <r>
     <d v="2011-10-25T00:00:00"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <n v="3300"/>
+    <x v="48"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-600"/>
-    <d v="2011-10-25T00:00:00"/>
+    <x v="75"/>
   </r>
   <r>
     <d v="2011-10-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
-    <d v="2011-10-26T00:00:00"/>
+    <x v="76"/>
   </r>
   <r>
     <d v="2011-10-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
-    <d v="2011-10-26T00:00:00"/>
+    <x v="76"/>
   </r>
   <r>
     <d v="2011-10-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
-    <d v="2011-10-26T00:00:00"/>
+    <x v="76"/>
   </r>
   <r>
     <d v="2011-10-26T00:00:00"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-10-26T00:00:00"/>
+    <x v="76"/>
   </r>
   <r>
     <d v="2011-10-28T00:00:00"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="218"/>
+    <x v="49"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-10-28T00:00:00"/>
+    <x v="77"/>
   </r>
   <r>
     <d v="2011-10-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="200"/>
+    <x v="8"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-10-31T00:00:00"/>
+    <x v="67"/>
   </r>
   <r>
     <d v="2011-10-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-200"/>
+    <x v="50"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-10-31T00:00:00"/>
+    <x v="67"/>
   </r>
   <r>
     <d v="2011-11-01T00:00:00"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP30"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-12-01T00:00:00"/>
+    <x v="78"/>
   </r>
   <r>
     <d v="2011-11-05T00:00:00"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-11-05T00:00:00"/>
+    <x v="79"/>
   </r>
   <r>
     <d v="2011-11-05T00:00:00"/>
     <s v="XY Traders"/>
     <s v="Invoice 12987"/>
     <s v="Commission"/>
-    <n v="982"/>
+    <x v="24"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-320"/>
-    <d v="2011-12-05T00:00:00"/>
+    <x v="80"/>
   </r>
   <r>
     <d v="2011-11-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
-    <d v="2011-11-15T00:00:00"/>
+    <x v="81"/>
   </r>
   <r>
     <d v="2011-11-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
-    <d v="2011-11-15T00:00:00"/>
+    <x v="81"/>
   </r>
   <r>
     <d v="2011-11-15T00:00:00"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-12-03T00:00:00"/>
+    <x v="82"/>
   </r>
   <r>
     <d v="2011-11-19T00:00:00"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="102"/>
+    <x v="51"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-11-19T00:00:00"/>
+    <x v="83"/>
   </r>
   <r>
     <d v="2011-11-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
-    <d v="2011-11-20T00:00:00"/>
+    <x v="84"/>
   </r>
   <r>
     <d v="2011-11-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-11-20T00:00:00"/>
+    <x v="84"/>
   </r>
   <r>
     <d v="2011-11-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
-    <d v="2011-11-26T00:00:00"/>
+    <x v="85"/>
   </r>
   <r>
     <d v="2011-11-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
-    <d v="2011-11-26T00:00:00"/>
+    <x v="85"/>
   </r>
   <r>
     <d v="2011-11-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
-    <d v="2011-11-26T00:00:00"/>
+    <x v="85"/>
   </r>
   <r>
     <d v="2011-11-26T00:00:00"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-11-26T00:00:00"/>
+    <x v="85"/>
   </r>
   <r>
     <d v="2011-11-30T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="170"/>
+    <x v="52"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-11-30T00:00:00"/>
+    <x v="86"/>
   </r>
   <r>
     <d v="2011-11-30T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-170"/>
+    <x v="53"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-11-30T00:00:00"/>
+    <x v="86"/>
   </r>
   <r>
     <d v="2011-12-01T00:00:00"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP31"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-12-31T00:00:00"/>
+    <x v="87"/>
   </r>
   <r>
     <d v="2011-12-05T00:00:00"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-12-05T00:00:00"/>
+    <x v="80"/>
   </r>
   <r>
     <d v="2011-12-06T00:00:00"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="96"/>
+    <x v="54"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-12-06T00:00:00"/>
+    <x v="88"/>
   </r>
   <r>
     <d v="2011-12-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
-    <d v="2011-12-15T00:00:00"/>
+    <x v="89"/>
   </r>
   <r>
     <d v="2011-12-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
-    <d v="2011-12-15T00:00:00"/>
+    <x v="89"/>
   </r>
   <r>
     <d v="2011-12-15T00:00:00"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
-    <d v="2012-01-02T00:00:00"/>
+    <x v="90"/>
   </r>
   <r>
     <d v="2011-12-17T00:00:00"/>
     <s v="Newscorp"/>
     <s v="M00353051"/>
     <s v="Subscriptions"/>
-    <n v="120"/>
+    <x v="55"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-375"/>
-    <d v="2012-01-16T00:00:00"/>
+    <x v="91"/>
   </r>
   <r>
     <d v="2011-12-17T00:00:00"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <n v="310"/>
+    <x v="56"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-370"/>
-    <d v="2012-01-16T00:00:00"/>
+    <x v="91"/>
   </r>
   <r>
     <d v="2011-12-17T00:00:00"/>
     <s v="XY Traders"/>
     <s v="Invoice 13432"/>
     <s v="Commission"/>
-    <n v="962"/>
+    <x v="57"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-320"/>
-    <d v="2012-01-16T00:00:00"/>
+    <x v="91"/>
   </r>
   <r>
     <d v="2011-12-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
-    <d v="2011-12-20T00:00:00"/>
+    <x v="92"/>
   </r>
   <r>
     <d v="2011-12-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-12-20T00:00:00"/>
+    <x v="92"/>
   </r>
   <r>
     <d v="2011-12-22T00:00:00"/>
     <s v="GF Supplies"/>
     <s v="IN1192"/>
     <s v="Consumables"/>
-    <n v="61"/>
+    <x v="58"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-325"/>
-    <d v="2012-01-21T00:00:00"/>
+    <x v="93"/>
   </r>
   <r>
     <d v="2011-12-25T00:00:00"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <n v="8400"/>
+    <x v="59"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-600"/>
-    <d v="2011-12-25T00:00:00"/>
+    <x v="94"/>
   </r>
   <r>
     <d v="2011-12-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
-    <d v="2011-12-26T00:00:00"/>
+    <x v="95"/>
   </r>
   <r>
     <d v="2011-12-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
-    <d v="2011-12-26T00:00:00"/>
+    <x v="95"/>
   </r>
   <r>
     <d v="2011-12-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
-    <d v="2011-12-26T00:00:00"/>
+    <x v="95"/>
   </r>
   <r>
     <d v="2011-12-26T00:00:00"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-12-26T00:00:00"/>
+    <x v="95"/>
   </r>
   <r>
     <d v="2011-12-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-12-31T00:00:00"/>
+    <x v="87"/>
   </r>
   <r>
     <d v="2011-12-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-100"/>
+    <x v="15"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-12-31T00:00:00"/>
+    <x v="87"/>
   </r>
   <r>
     <d v="2012-01-01T00:00:00"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP32"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
-    <d v="2012-01-31T00:00:00"/>
+    <x v="96"/>
   </r>
   <r>
     <d v="2012-01-05T00:00:00"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
-    <d v="2012-01-05T00:00:00"/>
+    <x v="97"/>
   </r>
   <r>
     <d v="2012-01-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
-    <d v="2012-01-15T00:00:00"/>
+    <x v="98"/>
   </r>
   <r>
     <d v="2012-01-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
-    <d v="2012-01-15T00:00:00"/>
+    <x v="98"/>
   </r>
   <r>
     <d v="2012-01-15T00:00:00"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
-    <d v="2012-02-02T00:00:00"/>
+    <x v="99"/>
   </r>
   <r>
     <d v="2012-01-16T00:00:00"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="105"/>
+    <x v="60"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
-    <d v="2012-01-16T00:00:00"/>
+    <x v="91"/>
   </r>
   <r>
     <d v="2012-01-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
-    <d v="2012-01-20T00:00:00"/>
+    <x v="100"/>
   </r>
   <r>
     <d v="2012-01-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2012-01-20T00:00:00"/>
+    <x v="100"/>
   </r>
   <r>
     <d v="2012-01-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
-    <d v="2012-01-26T00:00:00"/>
+    <x v="101"/>
   </r>
   <r>
     <d v="2012-01-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
-    <d v="2012-01-26T00:00:00"/>
+    <x v="101"/>
   </r>
   <r>
     <d v="2012-01-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
-    <d v="2012-01-26T00:00:00"/>
+    <x v="101"/>
   </r>
   <r>
     <d v="2012-01-26T00:00:00"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
-    <d v="2012-01-26T00:00:00"/>
+    <x v="101"/>
   </r>
   <r>
     <d v="2012-01-26T00:00:00"/>
     <s v="Training Inc"/>
     <s v="Invoice"/>
     <s v="Training"/>
-    <n v="389.25"/>
+    <x v="61"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-385"/>
-    <d v="2012-01-31T00:00:00"/>
+    <x v="96"/>
   </r>
   <r>
     <d v="2012-01-28T00:00:00"/>
     <s v="XY Traders"/>
     <s v="Invoice 14278"/>
     <s v="Commission"/>
-    <n v="514"/>
+    <x v="62"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-320"/>
-    <d v="2012-02-27T00:00:00"/>
+    <x v="102"/>
   </r>
   <r>
     <d v="2012-01-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="170"/>
+    <x v="52"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2012-01-31T00:00:00"/>
+    <x v="96"/>
   </r>
   <r>
     <d v="2012-01-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-170"/>
+    <x v="53"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
-    <d v="2012-01-31T00:00:00"/>
+    <x v="96"/>
   </r>
   <r>
     <d v="2012-02-01T00:00:00"/>
     <s v="IS Communications"/>
     <s v="Invoice EXP33"/>
     <s v="Internet Service Provider"/>
-    <n v="179"/>
+    <x v="1"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-380"/>
-    <m/>
+    <x v="103"/>
   </r>
   <r>
     <d v="2012-02-05T00:00:00"/>
     <s v="EAG Brokers"/>
     <s v="Debit Order"/>
     <s v="Insurance"/>
-    <n v="340"/>
+    <x v="3"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-340"/>
-    <d v="2012-02-05T00:00:00"/>
+    <x v="104"/>
   </r>
   <r>
     <d v="2012-02-11T00:00:00"/>
     <s v="Waltons"/>
     <s v="Invoice"/>
     <s v="Stationery"/>
-    <n v="289"/>
+    <x v="47"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-370"/>
-    <m/>
+    <x v="103"/>
   </r>
   <r>
     <d v="2012-02-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="80"/>
+    <x v="17"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-315"/>
-    <d v="2012-02-15T00:00:00"/>
+    <x v="105"/>
   </r>
   <r>
     <d v="2012-02-15T00:00:00"/>
     <s v="Capital Bank"/>
     <s v="Bank Statement"/>
     <s v="Service Fees"/>
-    <n v="35"/>
+    <x v="5"/>
     <s v="A"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-315"/>
-    <d v="2012-02-15T00:00:00"/>
+    <x v="105"/>
   </r>
   <r>
     <d v="2012-02-15T00:00:00"/>
     <s v="IAS Accountants"/>
     <s v="Invoice"/>
     <s v="Bookkeeping"/>
-    <n v="1000"/>
+    <x v="6"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-305"/>
-    <m/>
+    <x v="103"/>
   </r>
   <r>
     <d v="2012-02-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="-20000"/>
+    <x v="18"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="BS-399"/>
-    <d v="2012-02-20T00:00:00"/>
+    <x v="106"/>
   </r>
   <r>
     <d v="2012-02-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Transfer"/>
     <s v="Inter Account Transfer"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2012-02-20T00:00:00"/>
+    <x v="106"/>
   </r>
   <r>
     <d v="2012-02-25T00:00:00"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Sales Tax"/>
-    <n v="2200"/>
+    <x v="63"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-600"/>
-    <d v="2012-02-25T00:00:00"/>
+    <x v="107"/>
   </r>
   <r>
     <d v="2012-02-25T00:00:00"/>
     <s v="Interflora"/>
     <s v="Cash"/>
     <s v="Flowers"/>
-    <n v="75"/>
+    <x v="64"/>
     <s v="A"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="IS-345"/>
-    <d v="2012-02-25T00:00:00"/>
+    <x v="107"/>
   </r>
   <r>
     <d v="2012-02-26T00:00:00"/>
     <s v="DF Equipment"/>
     <s v="Invoice"/>
     <s v="Office equipment"/>
-    <n v="10000"/>
+    <x v="65"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-100"/>
-    <m/>
+    <x v="103"/>
   </r>
   <r>
     <d v="2012-02-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Payroll"/>
     <s v="Salaries"/>
-    <n v="20000"/>
+    <x v="19"/>
     <s v="E"/>
-    <s v="B2"/>
+    <x v="1"/>
     <s v="IS-365"/>
-    <d v="2012-02-26T00:00:00"/>
+    <x v="108"/>
   </r>
   <r>
     <d v="2012-02-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Capital repayment"/>
-    <n v="220"/>
+    <x v="12"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-700"/>
-    <d v="2012-02-26T00:00:00"/>
+    <x v="108"/>
   </r>
   <r>
     <d v="2012-02-26T00:00:00"/>
     <s v="HP Finance"/>
     <s v="Debit Order"/>
     <s v="Interest paid"/>
-    <n v="100"/>
+    <x v="13"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-500"/>
-    <d v="2012-02-26T00:00:00"/>
+    <x v="108"/>
   </r>
   <r>
     <d v="2012-02-26T00:00:00"/>
     <s v="PR Properties"/>
     <s v="Debit Order"/>
     <s v="Rent"/>
-    <n v="6400"/>
+    <x v="14"/>
     <s v="A"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-350"/>
-    <d v="2012-02-26T00:00:00"/>
+    <x v="108"/>
   </r>
   <r>
     <d v="2012-02-29T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="70"/>
+    <x v="66"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="BS-399"/>
-    <d v="2012-02-29T00:00:00"/>
+    <x v="109"/>
   </r>
   <r>
     <d v="2012-02-29T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
     <s v="Bank Statement"/>
     <s v="Petty Cash Reimbursement"/>
-    <n v="-70"/>
+    <x v="67"/>
     <s v="E"/>
-    <s v="PC"/>
+    <x v="2"/>
     <s v="BS-399"/>
-    <d v="2012-02-29T00:00:00"/>
+    <x v="109"/>
   </r>
   <r>
     <d v="2012-02-29T00:00:00"/>
     <s v="Inland Revenue"/>
     <s v="Return"/>
     <s v="Provisional Tax"/>
-    <n v="3700"/>
+    <x v="68"/>
     <s v="E"/>
-    <s v="B1"/>
+    <x v="0"/>
     <s v="IS-600"/>
-    <d v="2012-02-29T00:00:00"/>
+    <x v="109"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B187919-9230-4617-9F00-4F2CA2679D37}" name="PivotTable9" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8287BC7-1D8F-4AB5-8334-2138995DE094}" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:E21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField dataField="1" numFmtId="43" showAll="0">
+      <items count="70">
+        <item x="18"/>
+        <item x="9"/>
+        <item x="50"/>
+        <item x="53"/>
+        <item x="15"/>
+        <item x="67"/>
+        <item x="33"/>
+        <item x="30"/>
+        <item x="5"/>
+        <item x="22"/>
+        <item x="4"/>
+        <item x="58"/>
+        <item x="45"/>
+        <item x="25"/>
+        <item x="66"/>
+        <item x="64"/>
+        <item x="34"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="54"/>
+        <item x="13"/>
+        <item x="51"/>
+        <item x="60"/>
+        <item x="26"/>
+        <item x="55"/>
+        <item x="52"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="49"/>
+        <item x="12"/>
+        <item x="39"/>
+        <item x="41"/>
+        <item x="47"/>
+        <item x="56"/>
+        <item x="3"/>
+        <item x="61"/>
+        <item x="2"/>
+        <item x="62"/>
+        <item x="23"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="31"/>
+        <item x="57"/>
+        <item x="24"/>
+        <item x="6"/>
+        <item x="36"/>
+        <item x="20"/>
+        <item x="28"/>
+        <item x="46"/>
+        <item x="32"/>
+        <item x="63"/>
+        <item x="40"/>
+        <item x="21"/>
+        <item x="48"/>
+        <item x="68"/>
+        <item x="37"/>
+        <item x="44"/>
+        <item x="0"/>
+        <item x="42"/>
+        <item x="14"/>
+        <item x="38"/>
+        <item x="59"/>
+        <item x="27"/>
+        <item x="65"/>
+        <item x="43"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="111">
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="19"/>
+        <item h="1" x="9"/>
+        <item h="1" x="13"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="24"/>
+        <item h="1" x="26"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="20"/>
+        <item h="1" x="25"/>
+        <item h="1" x="28"/>
+        <item h="1" x="23"/>
+        <item h="1" x="29"/>
+        <item h="1" x="31"/>
+        <item h="1" x="32"/>
+        <item h="1" x="33"/>
+        <item h="1" x="34"/>
+        <item h="1" x="35"/>
+        <item h="1" x="27"/>
+        <item h="1" x="30"/>
+        <item h="1" x="38"/>
+        <item h="1" x="39"/>
+        <item h="1" x="41"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="50"/>
+        <item h="1" x="42"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="44"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="46"/>
+        <item h="1" x="51"/>
+        <item h="1" x="58"/>
+        <item h="1" x="49"/>
+        <item h="1" x="60"/>
+        <item h="1" x="62"/>
+        <item h="1" x="63"/>
+        <item h="1" x="64"/>
+        <item h="1" x="56"/>
+        <item h="1" x="66"/>
+        <item h="1" x="57"/>
+        <item h="1" x="61"/>
+        <item h="1" x="69"/>
+        <item h="1" x="70"/>
+        <item h="1" x="59"/>
+        <item h="1" x="71"/>
+        <item h="1" x="73"/>
+        <item h="1" x="65"/>
+        <item h="1" x="75"/>
+        <item h="1" x="76"/>
+        <item h="1" x="77"/>
+        <item h="1" x="67"/>
+        <item h="1" x="72"/>
+        <item h="1" x="68"/>
+        <item h="1" x="79"/>
+        <item h="1" x="81"/>
+        <item h="1" x="83"/>
+        <item h="1" x="84"/>
+        <item h="1" x="74"/>
+        <item h="1" x="85"/>
+        <item h="1" x="86"/>
+        <item h="1" x="78"/>
+        <item h="1" x="82"/>
+        <item h="1" x="80"/>
+        <item h="1" x="88"/>
+        <item h="1" x="89"/>
+        <item h="1" x="92"/>
+        <item h="1" x="94"/>
+        <item h="1" x="95"/>
+        <item h="1" x="87"/>
+        <item x="90"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="91"/>
+        <item x="100"/>
+        <item x="93"/>
+        <item x="101"/>
+        <item x="96"/>
+        <item x="99"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="102"/>
+        <item x="109"/>
+        <item h="1" x="103"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" sortType="ascending">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="6"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="8" baseItem="96" numFmtId="44"/>
+  </dataFields>
+  <formats count="20">
+    <format dxfId="89">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="87">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="86">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="85">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="84">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="83">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="82">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="81">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="80">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="79">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="78">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="75">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="71">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="69">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="46">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="19">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="96"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="97"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="98"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="99"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="100"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="101"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="102"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="103"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="104"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="105"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="106"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="107"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="108"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="93"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="94"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="95"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -5529,107 +8752,317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F19A7B-67E3-419C-BC08-00AEAEC0F43A}">
-  <dimension ref="A3:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9CFED6-9440-4B07-A6B4-3AB3767D9241}">
+  <dimension ref="A3:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="5" width="16.6328125" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
+    <row r="3" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="42">
+        <v>40910</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="42">
+        <v>40913</v>
+      </c>
+      <c r="B6" s="44">
+        <v>340</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="42">
+        <v>40923</v>
+      </c>
+      <c r="B7" s="44">
+        <v>80</v>
+      </c>
+      <c r="C7" s="43">
+        <v>35</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="42">
+        <v>40924</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1392</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43">
+        <v>105</v>
+      </c>
+      <c r="E8" s="43">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="42">
+        <v>40928</v>
+      </c>
+      <c r="B9" s="44">
+        <v>20000</v>
+      </c>
+      <c r="C9" s="43">
+        <v>-20000</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="42">
+        <v>40929</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43">
+        <v>61</v>
+      </c>
+      <c r="E10" s="43">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="42">
+        <v>40934</v>
+      </c>
+      <c r="B11" s="44">
+        <v>6720</v>
+      </c>
+      <c r="C11" s="43">
+        <v>20000</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43">
+        <v>26720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="42">
+        <v>40939</v>
+      </c>
+      <c r="B12" s="44">
+        <v>738.25</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43">
+        <v>-170</v>
+      </c>
+      <c r="E12" s="43">
+        <v>568.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="42">
+        <v>40941</v>
+      </c>
+      <c r="B13" s="44">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="42">
+        <v>40944</v>
+      </c>
+      <c r="B14" s="44">
+        <v>340</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="42">
+        <v>40954</v>
+      </c>
+      <c r="B15" s="44">
+        <v>80</v>
+      </c>
+      <c r="C15" s="43">
+        <v>35</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="42">
+        <v>40959</v>
+      </c>
+      <c r="B16" s="44">
+        <v>20000</v>
+      </c>
+      <c r="C16" s="43">
+        <v>-20000</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="42">
+        <v>40964</v>
+      </c>
+      <c r="B17" s="44">
+        <v>2200</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43">
+        <v>75</v>
+      </c>
+      <c r="E17" s="43">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="42">
+        <v>40965</v>
+      </c>
+      <c r="B18" s="44">
+        <v>6720</v>
+      </c>
+      <c r="C18" s="43">
+        <v>20000</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43">
+        <v>26720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="42">
+        <v>40966</v>
+      </c>
+      <c r="B19" s="44">
+        <v>514</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="42">
+        <v>40968</v>
+      </c>
+      <c r="B20" s="44">
+        <v>3770</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43">
+        <v>-70</v>
+      </c>
+      <c r="E20" s="43">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="44">
+        <v>64894.25</v>
+      </c>
+      <c r="C21" s="43">
+        <v>70</v>
+      </c>
+      <c r="D21" s="43">
+        <v>1</v>
+      </c>
+      <c r="E21" s="43">
+        <v>64965.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5637,7 +9070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I210"/>
     </sheetView>
   </sheetViews>
@@ -5648,9 +9081,9 @@
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="4" customWidth="1"/>
     <col min="7" max="7" width="6.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.54296875" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.1796875" style="2"/>
   </cols>
@@ -5662,7 +9095,7 @@
       <c r="E1" s="3"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="14" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -5678,7 +9111,9 @@
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
@@ -11720,10 +15155,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B83A06B-D064-47A4-A18D-98DC99F310DA}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11734,247 +15169,320 @@
     <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="20" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="22">
         <v>12</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="22">
         <v>85</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="20" t="s">
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="22">
         <v>11</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="22">
         <v>72</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="20" t="s">
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="27"/>
+      <c r="B6" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="22">
         <v>13</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="22">
         <v>60</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="20" t="s">
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+      <c r="B7" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="22">
         <v>12</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="22">
         <v>95</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="22">
         <v>14</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="22">
         <v>88</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="20" t="s">
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="22">
         <v>12</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="22">
         <v>99</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="20" t="s">
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
+      <c r="B10" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="22">
         <v>11</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="22">
         <v>75</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="20" t="s">
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="22">
         <v>13</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="22">
         <v>100</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="20" t="s">
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="22">
         <v>13</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="22">
         <v>75</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="20" t="s">
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="27"/>
+      <c r="B13" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="22">
         <v>15</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="22">
         <v>85</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="20" t="s">
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="27"/>
+      <c r="B14" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="22">
         <v>11</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="22">
         <v>85</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21">
         <f>MIN(C4:C14)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
+      <c r="D16" s="21">
+        <f>MIN(D4:D14)</f>
+        <v>60</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21">
         <f>MAX(C4:C14)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
+      <c r="D17" s="21">
+        <f>MAX(D4:D14)</f>
+        <v>100</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21">
         <f>AVERAGE(C4:C14)</f>
         <v>12.454545454545455</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
+      <c r="D18" s="21">
+        <f>AVERAGE(D4:D14)</f>
+        <v>83.545454545454547</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21">
         <f>MODE(C4:C14)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+      <c r="D19" s="21">
+        <f>MODE(D4:D14)</f>
+        <v>85</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21">
         <f>MEDIAN(C4:C14)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21" t="s">
+      <c r="D20" s="21">
+        <f>MEDIAN(D4:D14)</f>
+        <v>85</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="20">
-        <f>COUNT(B4:B14)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="20"/>
+      <c r="B21" s="32">
+        <f>COUNTA(B4:B14)</f>
+        <v>11</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11985,8 +15493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A656A4C-85DA-4C17-B9E7-D3789B4E7F59}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12001,168 +15509,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="41" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="38">
         <v>2000</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="39">
         <v>0.21</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="38">
         <v>3</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="40">
         <f>B4*C4</f>
         <v>420</v>
       </c>
-      <c r="F4" s="24">
-        <f>SUM(B4:C4)</f>
-        <v>2000.21</v>
-      </c>
-      <c r="G4" s="25">
+      <c r="F4" s="40">
+        <f>SUM(B4,E4)</f>
+        <v>2420</v>
+      </c>
+      <c r="G4" s="40">
         <f>F4/D4</f>
-        <v>666.73666666666668</v>
+        <v>806.66666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="38">
         <v>450</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="39">
         <v>0.25</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="38">
         <v>3</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="40">
         <f t="shared" ref="E5:E8" si="0">B5*C5</f>
         <v>112.5</v>
       </c>
-      <c r="F5" s="24">
-        <f t="shared" ref="F5:F7" si="1">SUM(B5:C5)</f>
-        <v>450.25</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="F5" s="40">
+        <f t="shared" ref="F5:F8" si="1">SUM(B5,E5)</f>
+        <v>562.5</v>
+      </c>
+      <c r="G5" s="40">
         <f t="shared" ref="G5:G8" si="2">F5/D5</f>
-        <v>150.08333333333334</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="38">
         <v>975</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="39">
         <v>0.27</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="38">
         <v>3</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="40">
         <f t="shared" si="0"/>
         <v>263.25</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="40">
         <f t="shared" si="1"/>
-        <v>975.27</v>
-      </c>
-      <c r="G6" s="25">
+        <v>1238.25</v>
+      </c>
+      <c r="G6" s="40">
         <f t="shared" si="2"/>
-        <v>325.08999999999997</v>
+        <v>412.75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="38">
         <v>1500</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="39">
         <v>0.15</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="38">
         <v>3</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="40">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="40">
         <f t="shared" si="1"/>
-        <v>1500.15</v>
-      </c>
-      <c r="G7" s="25">
+        <v>1725</v>
+      </c>
+      <c r="G7" s="40">
         <f t="shared" si="2"/>
-        <v>500.05</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="38">
         <v>780</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="39">
         <v>0.25</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="38">
         <v>3</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="40">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="F8" s="24">
-        <f>SUM(B8:C8)</f>
-        <v>780.25</v>
-      </c>
-      <c r="G8" s="25">
+      <c r="F8" s="40">
+        <f t="shared" si="1"/>
+        <v>975</v>
+      </c>
+      <c r="G8" s="40">
         <f t="shared" si="2"/>
-        <v>260.08333333333331</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/BabyAeshaShaheen_Week2Homework.xlsx
+++ b/BabyAeshaShaheen_Week2Homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bshah\code\SavvyCoders\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF898FA2-7C84-4082-A22C-FAC1E446C0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C3216-8B87-4F87-A112-9B72801C0FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payments" sheetId="18" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -560,7 +560,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,13 +616,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="11"/>
@@ -638,17 +631,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,18 +647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -683,8 +656,14 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -722,21 +701,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,18 +856,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -950,44 +912,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1001,139 +940,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
-    <cellStyle name="40% - Accent4" xfId="6" builtinId="43"/>
-    <cellStyle name="Accent1" xfId="8" builtinId="29"/>
+  <cellStyles count="7">
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
+    <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="7" builtinId="4"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
-    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
@@ -1150,103 +989,16 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="top"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment vertical="bottom"/>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
     </dxf>
     <dxf>
       <alignment relativeIndent="-1"/>
@@ -1277,9 +1029,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1359,50 +1108,48 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-        </c:marker>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -1446,50 +1193,48 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-        </c:marker>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -1533,50 +1278,48 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
-        </c:marker>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -3678,6 +3421,479 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Card Debt'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Card Debt'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital one</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Card Debt'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA21-481C-8140-504576C6634A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Card Debt'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Payment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Card Debt'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital one</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Card Debt'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>806.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA21-481C-8140-504576C6634A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1707929856"/>
+        <c:axId val="1707930336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1707929856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1707930336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1707930336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1707929856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -3733,62 +3949,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Credit Card Debt'!$A$4:$A$8</c:f>
@@ -3838,14 +3998,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B64C-4821-B900-E4611517D35D}"/>
+              <c16:uniqueId val="{00000000-8708-4DA6-ACC3-7B01919E1D78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3853,18 +4012,18 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="777453631"/>
-        <c:axId val="777457471"/>
+        <c:axId val="1839200752"/>
+        <c:axId val="1839202192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="777453631"/>
+        <c:axId val="1839200752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3899,7 +4058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="777457471"/>
+        <c:crossAx val="1839202192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3907,7 +4066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="777457471"/>
+        <c:axId val="1839202192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3928,7 +4087,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3957,7 +4116,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="777453631"/>
+        <c:crossAx val="1839200752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3969,36 +4128,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4088,6 +4217,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4604,6 +4773,502 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5144,23 +5809,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>463549</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>193674</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0B7F5E-C09C-B2AF-6DA4-2FA39886EABA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D172BFA-FABD-0EC3-B2D1-0CA635F8FD9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5173,6 +5838,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C6C7B0-1A41-9E14-9309-601993971AB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7748,7 +8449,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8287BC7-1D8F-4AB5-8334-2138995DE094}" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8287BC7-1D8F-4AB5-8334-2138995DE094}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:E21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0"/>
@@ -8071,10 +8772,10 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="8" baseItem="96" numFmtId="44"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="89">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" selected="0">
@@ -8083,7 +8784,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" selected="0">
@@ -8092,7 +8793,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" selected="0">
@@ -8101,7 +8802,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" selected="0">
@@ -8110,7 +8811,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" selected="0">
@@ -8119,7 +8820,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" selected="0">
@@ -8128,7 +8829,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" selected="0">
@@ -8137,7 +8838,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" selected="0">
@@ -8146,7 +8847,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" selected="0">
@@ -8155,7 +8856,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" selected="0">
@@ -8164,7 +8865,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" selected="0">
@@ -8173,7 +8874,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" selected="0">
@@ -8182,7 +8883,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" selected="0">
@@ -8191,26 +8892,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="5">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="4">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="3">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="0">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -8755,7 +9456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9CFED6-9440-4B07-A6B4-3AB3767D9241}">
   <dimension ref="A3:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -8778,7 +9479,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="35" t="s">
         <v>168</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -8786,7 +9487,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="34" t="s">
         <v>166</v>
       </c>
       <c r="B4" s="23" t="s">
@@ -8816,230 +9517,230 @@
       <c r="R4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="42">
+      <c r="A5" s="31">
         <v>40910</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="33">
         <v>1000</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="42">
+      <c r="A6" s="31">
         <v>40913</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="33">
         <v>340</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32">
         <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="42">
+      <c r="A7" s="31">
         <v>40923</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="33">
         <v>80</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="32">
         <v>35</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="42">
+      <c r="A8" s="31">
         <v>40924</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="33">
         <v>1392</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32">
         <v>105</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="32">
         <v>1497</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="42">
+      <c r="A9" s="31">
         <v>40928</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="33">
         <v>20000</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="32">
         <v>-20000</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="42">
+      <c r="A10" s="31">
         <v>40929</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43">
+      <c r="B10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32">
         <v>61</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="32">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="42">
+      <c r="A11" s="31">
         <v>40934</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="33">
         <v>6720</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="32">
         <v>20000</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32">
         <v>26720</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="42">
+      <c r="A12" s="31">
         <v>40939</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="33">
         <v>738.25</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32">
         <v>-170</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="32">
         <v>568.25</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="42">
+      <c r="A13" s="31">
         <v>40941</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="33">
         <v>1000</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="42">
+      <c r="A14" s="31">
         <v>40944</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="33">
         <v>340</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32">
         <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="42">
+      <c r="A15" s="31">
         <v>40954</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="33">
         <v>80</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="32">
         <v>35</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32">
         <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="42">
+      <c r="A16" s="31">
         <v>40959</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="33">
         <v>20000</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="32">
         <v>-20000</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43">
+      <c r="D16" s="32"/>
+      <c r="E16" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="42">
+      <c r="A17" s="31">
         <v>40964</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="33">
         <v>2200</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32">
         <v>75</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="32">
         <v>2275</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="42">
+      <c r="A18" s="31">
         <v>40965</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="33">
         <v>6720</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="32">
         <v>20000</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32">
         <v>26720</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="42">
+      <c r="A19" s="31">
         <v>40966</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="33">
         <v>514</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43">
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32">
         <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="42">
+      <c r="A20" s="31">
         <v>40968</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="33">
         <v>3770</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32">
         <v>-70</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="32">
         <v>3700</v>
       </c>
     </row>
@@ -9047,16 +9748,16 @@
       <c r="A21" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="33">
         <v>64894.25</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="32">
         <v>70</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="32">
         <v>1</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="32">
         <v>64965.25</v>
       </c>
     </row>
@@ -15170,25 +15871,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="A2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="20" t="s">
         <v>129</v>
       </c>
@@ -15201,10 +15898,10 @@
       <c r="E3" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="21" t="s">
         <v>133</v>
       </c>
@@ -15217,10 +15914,10 @@
       <c r="E4" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="21" t="s">
         <v>134</v>
       </c>
@@ -15233,10 +15930,10 @@
       <c r="E5" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="21" t="s">
         <v>135</v>
       </c>
@@ -15249,10 +15946,10 @@
       <c r="E6" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="21" t="s">
         <v>136</v>
       </c>
@@ -15265,10 +15962,10 @@
       <c r="E7" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="21" t="s">
         <v>137</v>
       </c>
@@ -15281,10 +15978,10 @@
       <c r="E8" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="21" t="s">
         <v>138</v>
       </c>
@@ -15297,10 +15994,10 @@
       <c r="E9" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="21" t="s">
         <v>139</v>
       </c>
@@ -15313,10 +16010,10 @@
       <c r="E10" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="21" t="s">
         <v>140</v>
       </c>
@@ -15329,10 +16026,10 @@
       <c r="E11" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="21" t="s">
         <v>141</v>
       </c>
@@ -15345,10 +16042,10 @@
       <c r="E12" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="21" t="s">
         <v>142</v>
       </c>
@@ -15361,10 +16058,10 @@
       <c r="E13" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="21" t="s">
         <v>143</v>
       </c>
@@ -15377,18 +16074,14 @@
       <c r="E14" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
+      <c r="A15" s="24"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="26" t="s">
         <v>146</v>
       </c>
       <c r="B16" s="21"/>
@@ -15400,11 +16093,10 @@
         <f>MIN(D4:D14)</f>
         <v>60</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="26" t="s">
         <v>147</v>
       </c>
       <c r="B17" s="21"/>
@@ -15416,11 +16108,10 @@
         <f>MAX(D4:D14)</f>
         <v>100</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="26" t="s">
         <v>148</v>
       </c>
       <c r="B18" s="21"/>
@@ -15432,11 +16123,10 @@
         <f>AVERAGE(D4:D14)</f>
         <v>83.545454545454547</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="26" t="s">
         <v>149</v>
       </c>
       <c r="B19" s="21"/>
@@ -15448,11 +16138,10 @@
         <f>MODE(D4:D14)</f>
         <v>85</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="26" t="s">
         <v>150</v>
       </c>
       <c r="B20" s="21"/>
@@ -15464,21 +16153,20 @@
         <f>MEDIAN(D4:D14)</f>
         <v>85</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="28">
         <f>COUNTA(B4:B14)</f>
         <v>11</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15493,8 +16181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A656A4C-85DA-4C17-B9E7-D3789B4E7F59}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15509,174 +16197,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="A2" s="24"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="45" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="42">
         <v>2000</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="43">
         <v>0.21</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="42">
         <v>3</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="44">
         <f>B4*C4</f>
         <v>420</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="44">
         <f>SUM(B4,E4)</f>
         <v>2420</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="44">
         <f>F4/D4</f>
         <v>806.66666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="42">
         <v>450</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="43">
         <v>0.25</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="42">
         <v>3</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="44">
         <f t="shared" ref="E5:E8" si="0">B5*C5</f>
         <v>112.5</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="44">
         <f t="shared" ref="F5:F8" si="1">SUM(B5,E5)</f>
         <v>562.5</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="44">
         <f t="shared" ref="G5:G8" si="2">F5/D5</f>
         <v>187.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="42">
         <v>975</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="43">
         <v>0.27</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="42">
         <v>3</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="44">
         <f t="shared" si="0"/>
         <v>263.25</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="44">
         <f t="shared" si="1"/>
         <v>1238.25</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="44">
         <f t="shared" si="2"/>
         <v>412.75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="42">
         <v>1500</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="43">
         <v>0.15</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="42">
         <v>3</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="44">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="44">
         <f t="shared" si="1"/>
         <v>1725</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="44">
         <f t="shared" si="2"/>
         <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="42">
         <v>780</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="43">
         <v>0.25</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="42">
         <v>3</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="44">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="44">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="44">
         <f t="shared" si="2"/>
         <v>325</v>
       </c>
